--- a/BritishLibraryVisitors.xlsx
+++ b/BritishLibraryVisitors.xlsx
@@ -19,7 +19,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Visitors (www.alva.org.uk)</t>
+    <t>Visitors</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
